--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="0" windowWidth="15600" windowHeight="27540" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="componentplot" sheetId="1" r:id="rId1"/>
     <sheet name="subtaskplot" sheetId="2" r:id="rId2"/>
+    <sheet name="simulate_pve" sheetId="3" r:id="rId3"/>
+    <sheet name="simulate_cus" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>strategy_questions_irrelevant_unique_mean</t>
   </si>
@@ -113,13 +115,154 @@
   </si>
   <si>
     <t>Day filter</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>theta1_1.mu</t>
+  </si>
+  <si>
+    <t>theta1_2.mu</t>
+  </si>
+  <si>
+    <t>theta1_3.mu</t>
+  </si>
+  <si>
+    <t>theta2_1.mu</t>
+  </si>
+  <si>
+    <t>theta2_2.mu</t>
+  </si>
+  <si>
+    <t>theta2_3.mu</t>
+  </si>
+  <si>
+    <t>theta3_1.mu</t>
+  </si>
+  <si>
+    <t>theta3_2.mu</t>
+  </si>
+  <si>
+    <t>theta3_3.mu</t>
+  </si>
+  <si>
+    <t>sigma.mu</t>
+  </si>
+  <si>
+    <t>theta1_1.sigma</t>
+  </si>
+  <si>
+    <t>theta1_2.sigma</t>
+  </si>
+  <si>
+    <t>theta1_3.sigma</t>
+  </si>
+  <si>
+    <t>theta2_1.sigma</t>
+  </si>
+  <si>
+    <t>theta2_2.sigma</t>
+  </si>
+  <si>
+    <t>theta2_3.sigma</t>
+  </si>
+  <si>
+    <t>theta3_1.sigma</t>
+  </si>
+  <si>
+    <t>theta3_2.sigma</t>
+  </si>
+  <si>
+    <t>theta3_3.sigma</t>
+  </si>
+  <si>
+    <t>sigma.sigma</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>constrained</t>
+  </si>
+  <si>
+    <t>unconstrained</t>
+  </si>
+  <si>
+    <t>gamma.mu</t>
+  </si>
+  <si>
+    <t>theta2.mu</t>
+  </si>
+  <si>
+    <t>gamma.sigma</t>
+  </si>
+  <si>
+    <t>theta2.sigma</t>
+  </si>
+  <si>
+    <t>lambda6_2</t>
+  </si>
+  <si>
+    <t>lambda6_3</t>
+  </si>
+  <si>
+    <t>lambda1_1</t>
+  </si>
+  <si>
+    <t>lambda1_2</t>
+  </si>
+  <si>
+    <t>lambda1_3</t>
+  </si>
+  <si>
+    <t>lambda2_1</t>
+  </si>
+  <si>
+    <t>lambda2_2</t>
+  </si>
+  <si>
+    <t>lambda2_3</t>
+  </si>
+  <si>
+    <t>lambda3_1</t>
+  </si>
+  <si>
+    <t>lambda3_2</t>
+  </si>
+  <si>
+    <t>lambda3_3</t>
+  </si>
+  <si>
+    <t>lambda4_1</t>
+  </si>
+  <si>
+    <t>lambda4_2</t>
+  </si>
+  <si>
+    <t>lambda4_3</t>
+  </si>
+  <si>
+    <t>lambda5_1</t>
+  </si>
+  <si>
+    <t>lambda5_2</t>
+  </si>
+  <si>
+    <t>lambda5_3</t>
+  </si>
+  <si>
+    <t>lambda6_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,13 +286,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,17 +317,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -810,4 +976,718 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="C2">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>3.15</v>
+      </c>
+      <c r="C3">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>8.81</v>
+      </c>
+      <c r="C4">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>0.84</v>
+      </c>
+      <c r="C5">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0.21</v>
+      </c>
+      <c r="C6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>1.39</v>
+      </c>
+      <c r="C7">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>8.19</v>
+      </c>
+      <c r="C8">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>5.41</v>
+      </c>
+      <c r="C9">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>3.42</v>
+      </c>
+      <c r="C10">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>2.11</v>
+      </c>
+      <c r="C11">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>10.53</v>
+      </c>
+      <c r="C12">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>4.54</v>
+      </c>
+      <c r="C13">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>5.05</v>
+      </c>
+      <c r="C14">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0.74</v>
+      </c>
+      <c r="C15">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>1.51</v>
+      </c>
+      <c r="C17">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>3.36</v>
+      </c>
+      <c r="C18">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>2.94</v>
+      </c>
+      <c r="C19">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>1.49</v>
+      </c>
+      <c r="C20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>1.55</v>
+      </c>
+      <c r="C21">
+        <v>1.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.64</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.82</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-0.09</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-0.49</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-0.18</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-0.06</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27260" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="componentplot" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>strategy_questions_irrelevant_unique_mean</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>lambda6_1</t>
+  </si>
+  <si>
+    <t>subtask_label</t>
+  </si>
+  <si>
+    <t>Information Gathering</t>
+  </si>
+  <si>
+    <t>Filtering</t>
+  </si>
+  <si>
+    <t>Timetabling</t>
   </si>
 </sst>
 </file>
@@ -362,14 +374,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="subtask"/>
     <tableColumn id="2" name="subtask_order"/>
     <tableColumn id="3" name="pch"/>
     <tableColumn id="4" name="lty"/>
     <tableColumn id="5" name="col"/>
+    <tableColumn id="6" name="subtask_label"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -700,7 +713,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -886,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -897,7 +910,7 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -913,8 +926,11 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -930,8 +946,11 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -947,8 +966,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -963,6 +985,9 @@
       </c>
       <c r="E4" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
